--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N2">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q2">
-        <v>0.4233548655229999</v>
+        <v>1.382821778757222</v>
       </c>
       <c r="R2">
-        <v>3.810193789706999</v>
+        <v>12.445396008815</v>
       </c>
       <c r="S2">
-        <v>0.001207714365270115</v>
+        <v>0.003652638986808331</v>
       </c>
       <c r="T2">
-        <v>0.001207714365270115</v>
+        <v>0.00365263898680833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.37879</v>
       </c>
       <c r="O3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q3">
-        <v>184.85453389117</v>
+        <v>216.9265076812166</v>
       </c>
       <c r="R3">
-        <v>1663.69080502053</v>
+        <v>1952.33856913095</v>
       </c>
       <c r="S3">
-        <v>0.5273388692247085</v>
+        <v>0.5729980763975947</v>
       </c>
       <c r="T3">
-        <v>0.5273388692247086</v>
+        <v>0.5729980763975947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N4">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q4">
-        <v>16.15550715979233</v>
+        <v>0.2554244068016667</v>
       </c>
       <c r="R4">
-        <v>145.399564438131</v>
+        <v>2.298819661215</v>
       </c>
       <c r="S4">
-        <v>0.04608719460682658</v>
+        <v>0.0006746879177045111</v>
       </c>
       <c r="T4">
-        <v>0.04608719460682659</v>
+        <v>0.0006746879177045111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H5">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I5">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J5">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05870933333333334</v>
+        <v>0.208416</v>
       </c>
       <c r="N5">
-        <v>0.176128</v>
+        <v>0.625248</v>
       </c>
       <c r="O5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q5">
-        <v>1.873436490410667</v>
+        <v>7.80450566896</v>
       </c>
       <c r="R5">
-        <v>16.860928413696</v>
+        <v>70.24055102064</v>
       </c>
       <c r="S5">
-        <v>0.005344396264573626</v>
+        <v>0.02061512345056493</v>
       </c>
       <c r="T5">
-        <v>0.005344396264573627</v>
+        <v>0.02061512345056493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.420477</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H6">
-        <v>34.261431</v>
+        <v>112.340305</v>
       </c>
       <c r="I6">
-        <v>0.2075697527013293</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J6">
-        <v>0.2075697527013294</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013267</v>
+        <v>0.050388</v>
       </c>
       <c r="N6">
-        <v>0.039801</v>
+        <v>0.151164</v>
       </c>
       <c r="O6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q6">
-        <v>0.151515468359</v>
+        <v>1.88686776278</v>
       </c>
       <c r="R6">
-        <v>1.363639215231</v>
+        <v>16.98180986502</v>
       </c>
       <c r="S6">
-        <v>0.0004322317341782212</v>
+        <v>0.004984045564769815</v>
       </c>
       <c r="T6">
-        <v>0.0004322317341782212</v>
+        <v>0.004984045564769815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J7">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>5.792929999999999</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N7">
-        <v>17.37879</v>
+        <v>0.110783</v>
       </c>
       <c r="O7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q7">
-        <v>66.15802382760999</v>
+        <v>0.4217315678303334</v>
       </c>
       <c r="R7">
-        <v>595.42221444849</v>
+        <v>3.795584110473</v>
       </c>
       <c r="S7">
-        <v>0.1887305479666121</v>
+        <v>0.001113978091963018</v>
       </c>
       <c r="T7">
-        <v>0.1887305479666121</v>
+        <v>0.001113978091963018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J8">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5062776666666666</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N8">
-        <v>1.518833</v>
+        <v>17.37879</v>
       </c>
       <c r="O8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q8">
-        <v>5.781932447780333</v>
+        <v>66.15802382760999</v>
       </c>
       <c r="R8">
-        <v>52.037392030023</v>
+        <v>595.42221444849</v>
       </c>
       <c r="S8">
-        <v>0.01649425445383559</v>
+        <v>0.1747523656592255</v>
       </c>
       <c r="T8">
-        <v>0.01649425445383559</v>
+        <v>0.1747523656592255</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J9">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05870933333333334</v>
+        <v>0.006821</v>
       </c>
       <c r="N9">
-        <v>0.176128</v>
+        <v>0.020463</v>
       </c>
       <c r="O9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q9">
-        <v>0.6704885910186666</v>
+        <v>0.07789907361699999</v>
       </c>
       <c r="R9">
-        <v>6.034397319168001</v>
+        <v>0.701091662553</v>
       </c>
       <c r="S9">
-        <v>0.001912718546703393</v>
+        <v>0.0002057656291654788</v>
       </c>
       <c r="T9">
-        <v>0.001912718546703394</v>
+        <v>0.0002057656291654788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6836493333333333</v>
+        <v>11.420477</v>
       </c>
       <c r="H10">
-        <v>2.050948</v>
+        <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J10">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.013267</v>
+        <v>0.208416</v>
       </c>
       <c r="N10">
-        <v>0.039801</v>
+        <v>0.625248</v>
       </c>
       <c r="O10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q10">
-        <v>0.009069975705333333</v>
+        <v>2.380210134432</v>
       </c>
       <c r="R10">
-        <v>0.08162978134799999</v>
+        <v>21.421891209888</v>
       </c>
       <c r="S10">
-        <v>2.587413265807124E-05</v>
+        <v>0.006287179206590301</v>
       </c>
       <c r="T10">
-        <v>2.587413265807124E-05</v>
+        <v>0.006287179206590299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6836493333333333</v>
+        <v>11.420477</v>
       </c>
       <c r="H11">
-        <v>2.050948</v>
+        <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J11">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.792929999999999</v>
+        <v>0.050388</v>
       </c>
       <c r="N11">
-        <v>17.37879</v>
+        <v>0.151164</v>
       </c>
       <c r="O11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q11">
-        <v>3.960332732546666</v>
+        <v>0.575454995076</v>
       </c>
       <c r="R11">
-        <v>35.64299459292</v>
+        <v>5.179094955684</v>
       </c>
       <c r="S11">
-        <v>0.01129773417493937</v>
+        <v>0.001520029104587326</v>
       </c>
       <c r="T11">
-        <v>0.01129773417493937</v>
+        <v>0.001520029104587325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H12">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I12">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J12">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5062776666666666</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N12">
-        <v>1.518833</v>
+        <v>0.110783</v>
       </c>
       <c r="O12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q12">
-        <v>0.3461163892982222</v>
+        <v>0.04596062937455556</v>
       </c>
       <c r="R12">
-        <v>3.115047503684</v>
+        <v>0.413645664371</v>
       </c>
       <c r="S12">
-        <v>0.000987374350580546</v>
+        <v>0.0001214021859437488</v>
       </c>
       <c r="T12">
-        <v>0.0009873743505805462</v>
+        <v>0.0001214021859437488</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H13">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I13">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J13">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05870933333333334</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N13">
-        <v>0.176128</v>
+        <v>17.37879</v>
       </c>
       <c r="O13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q13">
-        <v>0.04013659659377778</v>
+        <v>7.209952124136665</v>
       </c>
       <c r="R13">
-        <v>0.361229369344</v>
+        <v>64.88956911723</v>
       </c>
       <c r="S13">
-        <v>0.000114498611512293</v>
+        <v>0.01904464669721313</v>
       </c>
       <c r="T13">
-        <v>0.000114498611512293</v>
+        <v>0.01904464669721313</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H14">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I14">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J14">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,43 +1305,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.013267</v>
+        <v>0.006821</v>
       </c>
       <c r="N14">
-        <v>0.039801</v>
+        <v>0.020463</v>
       </c>
       <c r="O14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q14">
-        <v>0.131336480762</v>
+        <v>0.008489500725666666</v>
       </c>
       <c r="R14">
-        <v>1.182028326858</v>
+        <v>0.07640550653099999</v>
       </c>
       <c r="S14">
-        <v>0.0003746666624566576</v>
+        <v>2.24244959151398E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003746666624566577</v>
+        <v>2.242449591513979E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H15">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I15">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J15">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.792929999999999</v>
+        <v>0.208416</v>
       </c>
       <c r="N15">
-        <v>17.37879</v>
+        <v>0.625248</v>
       </c>
       <c r="O15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q15">
-        <v>57.34702943397999</v>
+        <v>0.259397124064</v>
       </c>
       <c r="R15">
-        <v>516.12326490582</v>
+        <v>2.334574116576</v>
       </c>
       <c r="S15">
-        <v>0.1635952173773307</v>
+        <v>0.0006851816068977828</v>
       </c>
       <c r="T15">
-        <v>0.1635952173773307</v>
+        <v>0.0006851816068977827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H16">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I16">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J16">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5062776666666666</v>
+        <v>0.050388</v>
       </c>
       <c r="N16">
-        <v>1.518833</v>
+        <v>0.151164</v>
       </c>
       <c r="O16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q16">
-        <v>5.011888673279333</v>
+        <v>0.06271352625199998</v>
       </c>
       <c r="R16">
-        <v>45.10699805951399</v>
+        <v>0.564421736268</v>
       </c>
       <c r="S16">
-        <v>0.01429753249765164</v>
+        <v>0.0001656539363981915</v>
       </c>
       <c r="T16">
-        <v>0.01429753249765164</v>
+        <v>0.0001656539363981914</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H17">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I17">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J17">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05870933333333334</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N17">
-        <v>0.176128</v>
+        <v>0.110783</v>
       </c>
       <c r="O17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q17">
-        <v>0.5811922234026666</v>
+        <v>0.3707016191587778</v>
       </c>
       <c r="R17">
-        <v>5.230730010624</v>
+        <v>3.336314572429</v>
       </c>
       <c r="S17">
-        <v>0.001657980702122213</v>
+        <v>0.0009791856097531497</v>
       </c>
       <c r="T17">
-        <v>0.001657980702122214</v>
+        <v>0.0009791856097531495</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H18">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I18">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J18">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.013267</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N18">
-        <v>0.039801</v>
+        <v>17.37879</v>
       </c>
       <c r="O18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q18">
-        <v>0.008714190144000001</v>
+        <v>58.15283565186333</v>
       </c>
       <c r="R18">
-        <v>0.078427711296</v>
+        <v>523.37552086677</v>
       </c>
       <c r="S18">
-        <v>2.485917483339351E-05</v>
+        <v>0.1536071516651647</v>
       </c>
       <c r="T18">
-        <v>2.485917483339351E-05</v>
+        <v>0.1536071516651646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H19">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I19">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J19">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>5.792929999999999</v>
+        <v>0.006821</v>
       </c>
       <c r="N19">
-        <v>17.37879</v>
+        <v>0.020463</v>
       </c>
       <c r="O19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q19">
-        <v>3.80498179776</v>
+        <v>0.06847320647433333</v>
       </c>
       <c r="R19">
-        <v>34.24483617984</v>
+        <v>0.616258858269</v>
       </c>
       <c r="S19">
-        <v>0.01085456091562601</v>
+        <v>0.0001808677787420335</v>
       </c>
       <c r="T19">
-        <v>0.01085456091562601</v>
+        <v>0.0001808677787420335</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H20">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I20">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J20">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5062776666666666</v>
+        <v>0.208416</v>
       </c>
       <c r="N20">
-        <v>1.518833</v>
+        <v>0.625248</v>
       </c>
       <c r="O20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q20">
-        <v>0.332539372352</v>
+        <v>2.092202287136</v>
       </c>
       <c r="R20">
-        <v>2.992854351168</v>
+        <v>18.829820584224</v>
       </c>
       <c r="S20">
-        <v>0.0009486428755490457</v>
+        <v>0.005526424127591213</v>
       </c>
       <c r="T20">
-        <v>0.0009486428755490458</v>
+        <v>0.005526424127591211</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H21">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I21">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J21">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05870933333333334</v>
+        <v>0.050388</v>
       </c>
       <c r="N21">
-        <v>0.176128</v>
+        <v>0.151164</v>
       </c>
       <c r="O21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q21">
-        <v>0.038562168832</v>
+        <v>0.505824355348</v>
       </c>
       <c r="R21">
-        <v>0.3470595194880001</v>
+        <v>4.552419198132</v>
       </c>
       <c r="S21">
-        <v>0.0001100072044686298</v>
+        <v>0.001336104036835301</v>
       </c>
       <c r="T21">
-        <v>0.0001100072044686298</v>
+        <v>0.0013361040368353</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H22">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I22">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J22">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N22">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q22">
-        <v>0.005958669622666666</v>
+        <v>0.0490095621728889</v>
       </c>
       <c r="R22">
-        <v>0.053628026604</v>
+        <v>0.4410860595560001</v>
       </c>
       <c r="S22">
-        <v>1.699843674243122E-05</v>
+        <v>0.0001294557550865199</v>
       </c>
       <c r="T22">
-        <v>1.699843674243122E-05</v>
+        <v>0.0001294557550865199</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H23">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I23">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J23">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>17.37879</v>
       </c>
       <c r="O23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q23">
-        <v>2.601805684573333</v>
+        <v>7.688245389586666</v>
       </c>
       <c r="R23">
-        <v>23.41625116116</v>
+        <v>69.19420850627999</v>
       </c>
       <c r="S23">
-        <v>0.00742223216690526</v>
+        <v>0.02030802904723704</v>
       </c>
       <c r="T23">
-        <v>0.00742223216690526</v>
+        <v>0.02030802904723704</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4491346666666667</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H24">
-        <v>1.347404</v>
+        <v>3.981532</v>
       </c>
       <c r="I24">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J24">
-        <v>0.00816312415756312</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N24">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q24">
-        <v>0.2273868510591111</v>
+        <v>0.009052676590666667</v>
       </c>
       <c r="R24">
-        <v>2.046481659532</v>
+        <v>0.08147408931599999</v>
       </c>
       <c r="S24">
-        <v>0.0006486718090705518</v>
+        <v>2.391209045011831E-05</v>
       </c>
       <c r="T24">
-        <v>0.0006486718090705518</v>
+        <v>2.39120904501183E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.327177333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.981532</v>
+      </c>
+      <c r="I25">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="J25">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.208416</v>
+      </c>
+      <c r="N25">
+        <v>0.625248</v>
+      </c>
+      <c r="O25">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P25">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q25">
+        <v>0.2766049911040001</v>
+      </c>
+      <c r="R25">
+        <v>2.489444919936</v>
+      </c>
+      <c r="S25">
+        <v>0.000730635133155235</v>
+      </c>
+      <c r="T25">
+        <v>0.0007306351331552348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.327177333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.981532</v>
+      </c>
+      <c r="I26">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="J26">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.050388</v>
+      </c>
+      <c r="N26">
+        <v>0.151164</v>
+      </c>
+      <c r="O26">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P26">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q26">
+        <v>0.066873811472</v>
+      </c>
+      <c r="R26">
+        <v>0.601864303248</v>
+      </c>
+      <c r="S26">
+        <v>0.0001766430748571414</v>
+      </c>
+      <c r="T26">
+        <v>0.0001766430748571413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H25">
-        <v>1.347404</v>
-      </c>
-      <c r="I25">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J25">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.05870933333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.176128</v>
-      </c>
-      <c r="O25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="P25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="Q25">
-        <v>0.02636839685688889</v>
-      </c>
-      <c r="R25">
-        <v>0.237315571712</v>
-      </c>
-      <c r="S25">
-        <v>7.522174484487641E-05</v>
-      </c>
-      <c r="T25">
-        <v>7.522174484487641E-05</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.630923</v>
+      </c>
+      <c r="H27">
+        <v>1.892769</v>
+      </c>
+      <c r="I27">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J27">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.03692766666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.110783</v>
+      </c>
+      <c r="O27">
+        <v>0.006058202227135638</v>
+      </c>
+      <c r="P27">
+        <v>0.006058202227135636</v>
+      </c>
+      <c r="Q27">
+        <v>0.02329851423633334</v>
+      </c>
+      <c r="R27">
+        <v>0.209686628127</v>
+      </c>
+      <c r="S27">
+        <v>6.154159758087018E-05</v>
+      </c>
+      <c r="T27">
+        <v>6.154159758087015E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.630923</v>
+      </c>
+      <c r="H28">
+        <v>1.892769</v>
+      </c>
+      <c r="I28">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J28">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N28">
+        <v>17.37879</v>
+      </c>
+      <c r="O28">
+        <v>0.9503644447516544</v>
+      </c>
+      <c r="P28">
+        <v>0.9503644447516543</v>
+      </c>
+      <c r="Q28">
+        <v>3.654892774389999</v>
+      </c>
+      <c r="R28">
+        <v>32.89403496951</v>
+      </c>
+      <c r="S28">
+        <v>0.009654175285219307</v>
+      </c>
+      <c r="T28">
+        <v>0.009654175285219306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.630923</v>
+      </c>
+      <c r="H29">
+        <v>1.892769</v>
+      </c>
+      <c r="I29">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J29">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006821</v>
+      </c>
+      <c r="N29">
+        <v>0.020463</v>
+      </c>
+      <c r="O29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="P29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="Q29">
+        <v>0.004303525783</v>
+      </c>
+      <c r="R29">
+        <v>0.038731732047</v>
+      </c>
+      <c r="S29">
+        <v>1.136749962807783E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.136749962807783E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.630923</v>
+      </c>
+      <c r="H30">
+        <v>1.892769</v>
+      </c>
+      <c r="I30">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J30">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.208416</v>
+      </c>
+      <c r="N30">
+        <v>0.625248</v>
+      </c>
+      <c r="O30">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P30">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q30">
+        <v>0.131494447968</v>
+      </c>
+      <c r="R30">
+        <v>1.183450031712</v>
+      </c>
+      <c r="S30">
+        <v>0.0003473345260937501</v>
+      </c>
+      <c r="T30">
+        <v>0.0003473345260937499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.630923</v>
+      </c>
+      <c r="H31">
+        <v>1.892769</v>
+      </c>
+      <c r="I31">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J31">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.050388</v>
+      </c>
+      <c r="N31">
+        <v>0.151164</v>
+      </c>
+      <c r="O31">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P31">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q31">
+        <v>0.031790948124</v>
+      </c>
+      <c r="R31">
+        <v>0.286118533116</v>
+      </c>
+      <c r="S31">
+        <v>8.397384126368358E-05</v>
+      </c>
+      <c r="T31">
+        <v>8.397384126368354E-05</v>
       </c>
     </row>
   </sheetData>
